--- a/biology/Botanique/Bothriochloa_barbinodis/Bothriochloa_barbinodis.xlsx
+++ b/biology/Botanique/Bothriochloa_barbinodis/Bothriochloa_barbinodis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Bothriochloa barbinodis, le Barbon Andropogon, est une espèce végétale herbacée, originaire du sud de l'Amérique du Nord (États-Unis d'Amérique et Mexique notamment), de la famille des Poaceae. En France, en une trentaine d'années, cette espèce a réussi à coloniser les milieux rudéraux des départements méridionaux. Son extension vers les régions de la moitié nord est en cours, via les voies de communications (autoroutes, voies ferrées).
@@ -512,9 +524,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (2 janvier 2020)[1] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (2 janvier 2020) (Attention liste brute contenant possiblement des synonymes) :
 Bothriochloa barbinodis var. barbinodis
 Bothriochloa barbinodis var. palmeri (Hack.) de Wet
 Bothriochloa barbinodis var. perforata (Trin. ex E. Fourn.) Gould
@@ -546,9 +560,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La floraison a lieu de juillet à septembre[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu de juillet à septembre.
 </t>
         </is>
       </c>
